--- a/PRS313.xlsx
+++ b/PRS313.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="956" uniqueCount="356">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="950" uniqueCount="355">
   <si>
     <r>
       <t>SNP</t>
@@ -1176,9 +1176,6 @@
   <si>
     <t>22_46283297_G_A</t>
   </si>
-  <si>
-    <t/>
-  </si>
 </sst>
 </file>
 
@@ -1187,7 +1184,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1197,6 +1194,12 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -1236,7 +1239,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1268,17 +1271,14 @@
     <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="general"/>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
@@ -1600,19 +1600,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="15" width="19.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="16" width="11.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="16" width="11.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="15" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="15" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="17" width="9.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="17" width="17.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="18" width="13.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="18" width="12.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="17" width="17.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="17" width="15.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="15" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="15" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="14" width="19.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="15" width="11.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="15" width="11.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="14" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="14" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="16" width="9.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="16" width="17.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="17" width="13.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="17" width="12.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="16" width="17.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="16" width="15.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="14" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="14" width="12.43357142857143" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
@@ -3798,7 +3798,7 @@
       <c r="L59" s="5"/>
       <c r="M59" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="18.75">
       <c r="A60" s="5" t="s">
         <v>81</v>
       </c>
@@ -3835,7 +3835,7 @@
       <c r="L60" s="5"/>
       <c r="M60" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="18.75">
       <c r="A61" s="5" t="s">
         <v>82</v>
       </c>
@@ -3872,7 +3872,7 @@
       <c r="L61" s="5"/>
       <c r="M61" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="18.75">
       <c r="A62" s="5" t="s">
         <v>83</v>
       </c>
@@ -3909,7 +3909,7 @@
       <c r="L62" s="5"/>
       <c r="M62" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="18.75">
       <c r="A63" s="5" t="s">
         <v>84</v>
       </c>
@@ -3946,7 +3946,7 @@
       <c r="L63" s="5"/>
       <c r="M63" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="18.75">
       <c r="A64" s="5" t="s">
         <v>86</v>
       </c>
@@ -3983,7 +3983,7 @@
       <c r="L64" s="5"/>
       <c r="M64" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="18.75">
       <c r="A65" s="5" t="s">
         <v>87</v>
       </c>
@@ -4020,7 +4020,7 @@
       <c r="L65" s="5"/>
       <c r="M65" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="18.75">
       <c r="A66" s="5" t="s">
         <v>89</v>
       </c>
@@ -4057,7 +4057,7 @@
       <c r="L66" s="5"/>
       <c r="M66" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="18.75">
       <c r="A67" s="5" t="s">
         <v>90</v>
       </c>
@@ -4094,7 +4094,7 @@
       <c r="L67" s="5"/>
       <c r="M67" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="18.75">
       <c r="A68" s="5" t="s">
         <v>91</v>
       </c>
@@ -4131,7 +4131,7 @@
       <c r="L68" s="5"/>
       <c r="M68" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="18.75">
       <c r="A69" s="5" t="s">
         <v>92</v>
       </c>
@@ -4168,7 +4168,7 @@
       <c r="L69" s="5"/>
       <c r="M69" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="18.75">
       <c r="A70" s="5" t="s">
         <v>93</v>
       </c>
@@ -4205,7 +4205,7 @@
       <c r="L70" s="5"/>
       <c r="M70" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="18.75">
       <c r="A71" s="5" t="s">
         <v>95</v>
       </c>
@@ -4242,7 +4242,7 @@
       <c r="L71" s="5"/>
       <c r="M71" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="18.75">
       <c r="A72" s="5" t="s">
         <v>96</v>
       </c>
@@ -4279,7 +4279,7 @@
       <c r="L72" s="5"/>
       <c r="M72" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="18.75">
       <c r="A73" s="5" t="s">
         <v>98</v>
       </c>
@@ -4316,7 +4316,7 @@
       <c r="L73" s="5"/>
       <c r="M73" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="18.75">
       <c r="A74" s="5" t="s">
         <v>99</v>
       </c>
@@ -4353,7 +4353,7 @@
       <c r="L74" s="5"/>
       <c r="M74" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="18.75">
       <c r="A75" s="5" t="s">
         <v>100</v>
       </c>
@@ -4390,7 +4390,7 @@
       <c r="L75" s="5"/>
       <c r="M75" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="18.75">
       <c r="A76" s="5" t="s">
         <v>101</v>
       </c>
@@ -4427,7 +4427,7 @@
       <c r="L76" s="5"/>
       <c r="M76" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="18.75">
       <c r="A77" s="5" t="s">
         <v>102</v>
       </c>
@@ -4464,7 +4464,7 @@
       <c r="L77" s="5"/>
       <c r="M77" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="18.75">
       <c r="A78" s="5" t="s">
         <v>104</v>
       </c>
@@ -4501,7 +4501,7 @@
       <c r="L78" s="5"/>
       <c r="M78" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="18.75">
       <c r="A79" s="5" t="s">
         <v>105</v>
       </c>
@@ -4538,7 +4538,7 @@
       <c r="L79" s="5"/>
       <c r="M79" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="18.75">
       <c r="A80" s="5" t="s">
         <v>107</v>
       </c>
@@ -4575,7 +4575,7 @@
       <c r="L80" s="5"/>
       <c r="M80" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="18.75">
       <c r="A81" s="5" t="s">
         <v>108</v>
       </c>
@@ -13234,104 +13234,92 @@
       <c r="M314" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="315" customHeight="1" ht="17.25">
-      <c r="A315" s="11" t="s">
-        <v>355</v>
-      </c>
-      <c r="B315" s="12"/>
-      <c r="C315" s="12"/>
+      <c r="A315" s="5"/>
+      <c r="B315" s="11"/>
+      <c r="C315" s="11"/>
       <c r="D315" s="5"/>
       <c r="E315" s="5"/>
-      <c r="F315" s="13"/>
-      <c r="G315" s="13"/>
-      <c r="H315" s="14"/>
-      <c r="I315" s="14"/>
-      <c r="J315" s="13"/>
-      <c r="K315" s="13"/>
+      <c r="F315" s="12"/>
+      <c r="G315" s="12"/>
+      <c r="H315" s="13"/>
+      <c r="I315" s="13"/>
+      <c r="J315" s="12"/>
+      <c r="K315" s="12"/>
       <c r="L315" s="5"/>
       <c r="M315" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="316" customHeight="1" ht="17.25">
-      <c r="A316" s="11" t="s">
-        <v>355</v>
-      </c>
-      <c r="B316" s="12"/>
-      <c r="C316" s="12"/>
+      <c r="A316" s="5"/>
+      <c r="B316" s="11"/>
+      <c r="C316" s="11"/>
       <c r="D316" s="5"/>
       <c r="E316" s="5"/>
-      <c r="F316" s="13"/>
-      <c r="G316" s="13"/>
-      <c r="H316" s="14"/>
-      <c r="I316" s="14"/>
-      <c r="J316" s="13"/>
-      <c r="K316" s="13"/>
+      <c r="F316" s="12"/>
+      <c r="G316" s="12"/>
+      <c r="H316" s="13"/>
+      <c r="I316" s="13"/>
+      <c r="J316" s="12"/>
+      <c r="K316" s="12"/>
       <c r="L316" s="5"/>
       <c r="M316" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="317" customHeight="1" ht="17.25">
-      <c r="A317" s="11" t="s">
-        <v>355</v>
-      </c>
-      <c r="B317" s="12"/>
-      <c r="C317" s="12"/>
+      <c r="A317" s="5"/>
+      <c r="B317" s="11"/>
+      <c r="C317" s="11"/>
       <c r="D317" s="5"/>
       <c r="E317" s="5"/>
-      <c r="F317" s="13"/>
-      <c r="G317" s="13"/>
-      <c r="H317" s="14"/>
-      <c r="I317" s="14"/>
-      <c r="J317" s="13"/>
-      <c r="K317" s="13"/>
+      <c r="F317" s="12"/>
+      <c r="G317" s="12"/>
+      <c r="H317" s="13"/>
+      <c r="I317" s="13"/>
+      <c r="J317" s="12"/>
+      <c r="K317" s="12"/>
       <c r="L317" s="5"/>
       <c r="M317" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="318" customHeight="1" ht="17.25">
-      <c r="A318" s="11" t="s">
-        <v>355</v>
-      </c>
-      <c r="B318" s="12"/>
-      <c r="C318" s="12"/>
+      <c r="A318" s="5"/>
+      <c r="B318" s="11"/>
+      <c r="C318" s="11"/>
       <c r="D318" s="5"/>
       <c r="E318" s="5"/>
-      <c r="F318" s="13"/>
-      <c r="G318" s="13"/>
-      <c r="H318" s="14"/>
-      <c r="I318" s="14"/>
-      <c r="J318" s="13"/>
-      <c r="K318" s="13"/>
+      <c r="F318" s="12"/>
+      <c r="G318" s="12"/>
+      <c r="H318" s="13"/>
+      <c r="I318" s="13"/>
+      <c r="J318" s="12"/>
+      <c r="K318" s="12"/>
       <c r="L318" s="5"/>
       <c r="M318" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="319" customHeight="1" ht="17.25">
-      <c r="A319" s="11" t="s">
-        <v>355</v>
-      </c>
-      <c r="B319" s="12"/>
-      <c r="C319" s="12"/>
+      <c r="A319" s="5"/>
+      <c r="B319" s="11"/>
+      <c r="C319" s="11"/>
       <c r="D319" s="5"/>
       <c r="E319" s="5"/>
-      <c r="F319" s="13"/>
-      <c r="G319" s="13"/>
-      <c r="H319" s="14"/>
-      <c r="I319" s="14"/>
-      <c r="J319" s="13"/>
-      <c r="K319" s="13"/>
+      <c r="F319" s="12"/>
+      <c r="G319" s="12"/>
+      <c r="H319" s="13"/>
+      <c r="I319" s="13"/>
+      <c r="J319" s="12"/>
+      <c r="K319" s="12"/>
       <c r="L319" s="5"/>
       <c r="M319" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="320" customHeight="1" ht="17.25">
-      <c r="A320" s="11" t="s">
-        <v>355</v>
-      </c>
-      <c r="B320" s="12"/>
-      <c r="C320" s="12"/>
+      <c r="A320" s="5"/>
+      <c r="B320" s="11"/>
+      <c r="C320" s="11"/>
       <c r="D320" s="5"/>
       <c r="E320" s="5"/>
-      <c r="F320" s="13"/>
-      <c r="G320" s="13"/>
-      <c r="H320" s="14"/>
-      <c r="I320" s="14"/>
-      <c r="J320" s="13"/>
-      <c r="K320" s="13"/>
+      <c r="F320" s="12"/>
+      <c r="G320" s="12"/>
+      <c r="H320" s="13"/>
+      <c r="I320" s="13"/>
+      <c r="J320" s="12"/>
+      <c r="K320" s="12"/>
       <c r="L320" s="5"/>
       <c r="M320" s="5"/>
     </row>
